--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H2">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I2">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J2">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N2">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O2">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P2">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q2">
-        <v>6.271284795871999</v>
+        <v>1.225183041472</v>
       </c>
       <c r="R2">
-        <v>25.085139183488</v>
+        <v>4.900732165888</v>
       </c>
       <c r="S2">
-        <v>0.0003370579951625237</v>
+        <v>9.447131403001027E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001647422659485107</v>
+        <v>4.727718782480331E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H3">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I3">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J3">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>255.851719</v>
       </c>
       <c r="O3">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P3">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q3">
-        <v>26.73684577112533</v>
+        <v>6.547074921397334</v>
       </c>
       <c r="R3">
-        <v>160.421074626752</v>
+        <v>39.282449528384</v>
       </c>
       <c r="S3">
-        <v>0.001437005003905589</v>
+        <v>5.048313190282332E-05</v>
       </c>
       <c r="T3">
-        <v>0.001053537361168093</v>
+        <v>3.789563848232163E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H4">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I4">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J4">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N4">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O4">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P4">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q4">
-        <v>0.1166207709653333</v>
+        <v>0.03781788717866667</v>
       </c>
       <c r="R4">
-        <v>0.699724625792</v>
+        <v>0.226907323072</v>
       </c>
       <c r="S4">
-        <v>6.267928269141454E-06</v>
+        <v>2.916058559964133E-07</v>
       </c>
       <c r="T4">
-        <v>4.595319146916503E-06</v>
+        <v>2.188966825481366E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H5">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I5">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J5">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N5">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O5">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P5">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q5">
-        <v>4.883614673328</v>
+        <v>2.108184353296</v>
       </c>
       <c r="R5">
-        <v>19.534458693312</v>
+        <v>8.432737413184</v>
       </c>
       <c r="S5">
-        <v>0.0002624759398619115</v>
+        <v>1.625577071603077E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001282891422556712</v>
+        <v>8.135031604774651E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H6">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I6">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J6">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N6">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O6">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P6">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q6">
-        <v>3.196860062762667</v>
+        <v>0.027888509344</v>
       </c>
       <c r="R6">
-        <v>19.181160376576</v>
+        <v>0.167331056064</v>
       </c>
       <c r="S6">
-        <v>0.0001718192170572757</v>
+        <v>2.150424903776397E-07</v>
       </c>
       <c r="T6">
-        <v>0.0001259689173277108</v>
+        <v>1.614236709674784E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.313504</v>
+        <v>0.076768</v>
       </c>
       <c r="H7">
-        <v>0.627008</v>
+        <v>0.153536</v>
       </c>
       <c r="I7">
-        <v>0.002221133687735784</v>
+        <v>7.676117776077181E-05</v>
       </c>
       <c r="J7">
-        <v>0.001481904042397589</v>
+        <v>5.119012593468803E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N7">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O7">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P7">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q7">
-        <v>0.1210801563626667</v>
+        <v>0.008883055584</v>
       </c>
       <c r="R7">
-        <v>0.726480938176</v>
+        <v>0.053298333504</v>
       </c>
       <c r="S7">
-        <v>6.507603479342654E-06</v>
+        <v>6.849539254263984E-08</v>
       </c>
       <c r="T7">
-        <v>4.771036550687889E-06</v>
+        <v>5.141671159580775E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H8">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I8">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J8">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N8">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O8">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P8">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q8">
-        <v>1607.002626232885</v>
+        <v>2047.461019065115</v>
       </c>
       <c r="R8">
-        <v>9642.015757397308</v>
+        <v>12284.76611439069</v>
       </c>
       <c r="S8">
-        <v>0.08637035329275802</v>
+        <v>0.01578754572573194</v>
       </c>
       <c r="T8">
-        <v>0.06332225277149173</v>
+        <v>0.01185106990780816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H9">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I9">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J9">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>255.851719</v>
       </c>
       <c r="O9">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P9">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q9">
-        <v>6851.256603696901</v>
+        <v>10941.1249068176</v>
       </c>
       <c r="R9">
-        <v>61661.30943327212</v>
+        <v>98470.12416135843</v>
       </c>
       <c r="S9">
-        <v>0.3682293007496852</v>
+        <v>0.08436473669042005</v>
       </c>
       <c r="T9">
-        <v>0.4049498694460528</v>
+        <v>0.09499377638942449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H10">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I10">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J10">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N10">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O10">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P10">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q10">
-        <v>29.88381030597667</v>
+        <v>63.19925039828588</v>
       </c>
       <c r="R10">
-        <v>268.95429275379</v>
+        <v>568.793253584573</v>
       </c>
       <c r="S10">
-        <v>0.001606142523806256</v>
+        <v>0.0004873162644876656</v>
       </c>
       <c r="T10">
-        <v>0.001766310296336877</v>
+        <v>0.0005487128162272519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H11">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I11">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J11">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N11">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O11">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P11">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q11">
-        <v>1251.415277889053</v>
+        <v>3523.086051852772</v>
       </c>
       <c r="R11">
-        <v>7508.491667334316</v>
+        <v>21138.51631111663</v>
       </c>
       <c r="S11">
-        <v>0.06725886934024765</v>
+        <v>0.02716578319264458</v>
       </c>
       <c r="T11">
-        <v>0.04931070631437377</v>
+        <v>0.02039225103821291</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H12">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I12">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J12">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N12">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O12">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P12">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q12">
-        <v>819.1882020635132</v>
+        <v>46.60579997342233</v>
       </c>
       <c r="R12">
-        <v>7372.69381857162</v>
+        <v>419.452199760801</v>
       </c>
       <c r="S12">
-        <v>0.04402828798814382</v>
+        <v>0.0003593676222957783</v>
       </c>
       <c r="T12">
-        <v>0.04841887768418521</v>
+        <v>0.0004046440360411958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.334695</v>
+        <v>128.2906163333333</v>
       </c>
       <c r="H13">
-        <v>241.004085</v>
+        <v>384.871849</v>
       </c>
       <c r="I13">
-        <v>0.5691605126520856</v>
+        <v>0.1282792153684084</v>
       </c>
       <c r="J13">
-        <v>0.5696018675931284</v>
+        <v>0.1283193415161671</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N13">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O13">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P13">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q13">
-        <v>31.02651778588833</v>
+        <v>14.844892087779</v>
       </c>
       <c r="R13">
-        <v>279.238660072995</v>
+        <v>133.604028790011</v>
       </c>
       <c r="S13">
-        <v>0.001667558757444661</v>
+        <v>0.0001144658728283773</v>
       </c>
       <c r="T13">
-        <v>0.00183385108068811</v>
+        <v>0.0001288873284531203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H14">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I14">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J14">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N14">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O14">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P14">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q14">
-        <v>0.291976092428</v>
+        <v>13.748062541551</v>
       </c>
       <c r="R14">
-        <v>1.167904369712</v>
+        <v>54.99225016620399</v>
       </c>
       <c r="S14">
-        <v>1.569261794870941E-05</v>
+        <v>0.000106008448509591</v>
       </c>
       <c r="T14">
-        <v>7.670007763168773E-06</v>
+        <v>5.305082693791952E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H15">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I15">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J15">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>255.851719</v>
       </c>
       <c r="O15">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P15">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q15">
-        <v>1.244803896841334</v>
+        <v>73.46624335858283</v>
       </c>
       <c r="R15">
-        <v>7.468823381048001</v>
+        <v>440.797460151497</v>
       </c>
       <c r="S15">
-        <v>6.690353244936583E-05</v>
+        <v>0.0005664829100633981</v>
       </c>
       <c r="T15">
-        <v>4.905019177940147E-05</v>
+        <v>0.0004252357323531165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H16">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I16">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J16">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N16">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O16">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P16">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q16">
-        <v>0.005429585501333334</v>
+        <v>0.4243632669751666</v>
       </c>
       <c r="R16">
-        <v>0.03257751300800001</v>
+        <v>2.546179601851</v>
       </c>
       <c r="S16">
-        <v>2.918198205330353E-07</v>
+        <v>3.272176817681512E-06</v>
       </c>
       <c r="T16">
-        <v>2.139471211480341E-07</v>
+        <v>2.456290350047742E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H17">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I17">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J17">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N17">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O17">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P17">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q17">
-        <v>0.227369474622</v>
+        <v>23.65642467872425</v>
       </c>
       <c r="R17">
-        <v>0.9094778984880001</v>
+        <v>94.625698714897</v>
       </c>
       <c r="S17">
-        <v>1.222025498310854E-05</v>
+        <v>0.0001824097664595464</v>
       </c>
       <c r="T17">
-        <v>5.972837094148007E-06</v>
+        <v>9.128507291903442E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H18">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I18">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J18">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N18">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O18">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P18">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q18">
-        <v>0.1488381949706667</v>
+        <v>0.3129434196145</v>
       </c>
       <c r="R18">
-        <v>0.893029169824</v>
+        <v>1.877660517687</v>
       </c>
       <c r="S18">
-        <v>7.999493761381024E-06</v>
+        <v>2.413041567446667E-06</v>
       </c>
       <c r="T18">
-        <v>5.864812944381149E-06</v>
+        <v>1.811372381943275E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.014596</v>
+        <v>0.8614315</v>
       </c>
       <c r="H19">
-        <v>0.029192</v>
+        <v>1.722863</v>
       </c>
       <c r="I19">
-        <v>0.000103410697490914</v>
+        <v>0.0008613549460742536</v>
       </c>
       <c r="J19">
-        <v>6.899392480745132E-05</v>
+        <v>0.000574416253765986</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N19">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O19">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P19">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q19">
-        <v>0.005637203870666668</v>
+        <v>0.0996788231595</v>
       </c>
       <c r="R19">
-        <v>0.03382322322400001</v>
+        <v>0.598072938957</v>
       </c>
       <c r="S19">
-        <v>3.029785278161855E-07</v>
+        <v>7.68602656589921E-07</v>
       </c>
       <c r="T19">
-        <v>2.221281052038903E-07</v>
+        <v>5.769588239246047E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H20">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I20">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J20">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N20">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O20">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P20">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q20">
-        <v>11.69073260937966</v>
+        <v>12544.54387645407</v>
       </c>
       <c r="R20">
-        <v>70.14439565627799</v>
+        <v>75267.26325872442</v>
       </c>
       <c r="S20">
-        <v>0.0006283329530644833</v>
+        <v>0.09672836660323775</v>
       </c>
       <c r="T20">
-        <v>0.0004606610551162716</v>
+        <v>0.07261005951131906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H21">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I21">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J21">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>255.851719</v>
       </c>
       <c r="O21">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P21">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q21">
-        <v>49.84199010292078</v>
+        <v>67034.93750225721</v>
       </c>
       <c r="R21">
-        <v>448.577910926287</v>
+        <v>603314.4375203149</v>
       </c>
       <c r="S21">
-        <v>0.002678819700559444</v>
+        <v>0.5168924493232616</v>
       </c>
       <c r="T21">
-        <v>0.002945957005057775</v>
+        <v>0.5820152788312031</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H22">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I22">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J22">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N22">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O22">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P22">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q22">
-        <v>0.2174007869891111</v>
+        <v>387.2140969708449</v>
       </c>
       <c r="R22">
-        <v>1.956607082902</v>
+        <v>3484.926872737605</v>
       </c>
       <c r="S22">
-        <v>1.168447547742341E-05</v>
+        <v>0.00298572730061866</v>
       </c>
       <c r="T22">
-        <v>1.284967494301785E-05</v>
+        <v>0.003361896482834348</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H23">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I23">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J23">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N23">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O23">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P23">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q23">
-        <v>9.1038814487745</v>
+        <v>21585.51842817032</v>
       </c>
       <c r="R23">
-        <v>54.62328869264701</v>
+        <v>129513.1105690219</v>
       </c>
       <c r="S23">
-        <v>0.0004892994225586841</v>
+        <v>0.1664414394340811</v>
       </c>
       <c r="T23">
-        <v>0.0003587288986903315</v>
+        <v>0.1249408342852521</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H24">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I24">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J24">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N24">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O24">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P24">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q24">
-        <v>5.959486357239555</v>
+        <v>285.548050595265</v>
       </c>
       <c r="R24">
-        <v>53.635377215156</v>
+        <v>2569.932455357385</v>
       </c>
       <c r="S24">
-        <v>0.0003203000005823008</v>
+        <v>0.002201801579462936</v>
       </c>
       <c r="T24">
-        <v>0.000352240962778637</v>
+        <v>0.002479204642822461</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5844243333333333</v>
+        <v>786.020955</v>
       </c>
       <c r="H25">
-        <v>1.753273</v>
+        <v>2358.062865</v>
       </c>
       <c r="I25">
-        <v>0.004140567822736532</v>
+        <v>0.7859511026788064</v>
       </c>
       <c r="J25">
-        <v>0.004143778621846211</v>
+        <v>0.7861969506907909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N25">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O25">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P25">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q25">
-        <v>0.2257138335145556</v>
+        <v>90.95284276591499</v>
       </c>
       <c r="R25">
-        <v>2.031424501631</v>
+        <v>818.5755848932349</v>
       </c>
       <c r="S25">
-        <v>1.213127049419628E-05</v>
+        <v>0.0007013184381443523</v>
       </c>
       <c r="T25">
-        <v>1.334102526017883E-05</v>
+        <v>0.000789676937359897</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H26">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I26">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J26">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N26">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O26">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P26">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q26">
-        <v>1198.204584113012</v>
+        <v>1353.994282879021</v>
       </c>
       <c r="R26">
-        <v>7189.227504678072</v>
+        <v>8123.965697274127</v>
       </c>
       <c r="S26">
-        <v>0.06439899447422902</v>
+        <v>0.01044036807259594</v>
       </c>
       <c r="T26">
-        <v>0.04721399474313544</v>
+        <v>0.007837160635418935</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H27">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I27">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J27">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>255.851719</v>
       </c>
       <c r="O27">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P27">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q27">
-        <v>5108.396797538591</v>
+        <v>7235.410312651801</v>
       </c>
       <c r="R27">
-        <v>45975.57117784732</v>
+        <v>65118.6928138662</v>
       </c>
       <c r="S27">
-        <v>0.2745571344816593</v>
+        <v>0.05579074282331425</v>
       </c>
       <c r="T27">
-        <v>0.3019365257937729</v>
+        <v>0.0628197699212355</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H28">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I28">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J28">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N28">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O28">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P28">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q28">
-        <v>22.28180459376289</v>
+        <v>41.79392082423688</v>
       </c>
       <c r="R28">
-        <v>200.536241343866</v>
+        <v>376.1452874181319</v>
       </c>
       <c r="S28">
-        <v>0.001197563279205622</v>
+        <v>0.0003222642238002363</v>
       </c>
       <c r="T28">
-        <v>0.001316986705241484</v>
+        <v>0.0003628660126840334</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H29">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I29">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J29">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N29">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O29">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P29">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q29">
-        <v>933.0734736325336</v>
+        <v>2329.831106859167</v>
       </c>
       <c r="R29">
-        <v>5598.440841795201</v>
+        <v>13978.986641155</v>
       </c>
       <c r="S29">
-        <v>0.05014919344261475</v>
+        <v>0.01796484269554828</v>
       </c>
       <c r="T29">
-        <v>0.03676678145214847</v>
+        <v>0.01348547838697385</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H30">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I30">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J30">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N30">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O30">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P30">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q30">
-        <v>610.7986651302164</v>
+        <v>30.82060470280933</v>
       </c>
       <c r="R30">
-        <v>5497.187986171948</v>
+        <v>277.385442325284</v>
       </c>
       <c r="S30">
-        <v>0.03282813334394429</v>
+        <v>0.0002376512673547689</v>
       </c>
       <c r="T30">
-        <v>0.03610182102489631</v>
+        <v>0.0002675927435488076</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>59.89871966666666</v>
+        <v>84.83910533333334</v>
       </c>
       <c r="H31">
-        <v>179.696159</v>
+        <v>254.517316</v>
       </c>
       <c r="I31">
-        <v>0.4243743751399512</v>
+        <v>0.08483156582895013</v>
       </c>
       <c r="J31">
-        <v>0.4247034558178204</v>
+        <v>0.08485810141334142</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N31">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O31">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P31">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q31">
-        <v>23.13382394854144</v>
+        <v>9.816987395436</v>
       </c>
       <c r="R31">
-        <v>208.204415536873</v>
+        <v>88.352886558924</v>
       </c>
       <c r="S31">
-        <v>0.001243356118298236</v>
+        <v>7.569674633666418E-05</v>
       </c>
       <c r="T31">
-        <v>0.00136734609862589</v>
+        <v>8.52337134802982E-05</v>
       </c>
     </row>
   </sheetData>
